--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.7933302075393</v>
+        <v>267.3660156798448</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.9403956885071</v>
+        <v>365.821978009302</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.455557924656</v>
+        <v>330.9084418624644</v>
       </c>
       <c r="AD2" t="n">
-        <v>225793.3302075393</v>
+        <v>267366.0156798448</v>
       </c>
       <c r="AE2" t="n">
-        <v>308940.3956885071</v>
+        <v>365821.9780093021</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.481389075078944e-06</v>
+        <v>4.194911348520268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.163580246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>279455.557924656</v>
+        <v>330908.4418624644</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.8287722090648</v>
+        <v>183.9869734767863</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.1070684659289</v>
+        <v>251.7390940432294</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.1501833352142</v>
+        <v>227.7134682258544</v>
       </c>
       <c r="AD3" t="n">
-        <v>152828.7722090648</v>
+        <v>183986.9734767863</v>
       </c>
       <c r="AE3" t="n">
-        <v>209107.0684659289</v>
+        <v>251739.0940432294</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.359916768270625e-06</v>
+        <v>5.680106003067487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.030092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>189150.1833352142</v>
+        <v>227713.4682258544</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.7673775118372</v>
+        <v>161.8402379249871</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.9216949611539</v>
+        <v>221.4369534162568</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.8456595122875</v>
+        <v>200.3033213709889</v>
       </c>
       <c r="AD4" t="n">
-        <v>130767.3775118372</v>
+        <v>161840.2379249871</v>
       </c>
       <c r="AE4" t="n">
-        <v>178921.6949611539</v>
+        <v>221436.9534162568</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.69487908457721e-06</v>
+        <v>6.24637641834141e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.482253086419754</v>
       </c>
       <c r="AH4" t="n">
-        <v>161845.6595122875</v>
+        <v>200303.3213709889</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.3222936236368</v>
+        <v>146.1513515413492</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.4714909651745</v>
+        <v>199.9707269213561</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.106492529255</v>
+        <v>180.8858014047165</v>
       </c>
       <c r="AD5" t="n">
-        <v>125322.2936236368</v>
+        <v>146151.3515413492</v>
       </c>
       <c r="AE5" t="n">
-        <v>171471.4909651745</v>
+        <v>199970.7269213561</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.872496292753577e-06</v>
+        <v>6.546647121454675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.231481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>155106.492529255</v>
+        <v>180885.8014047165</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.0511849477264</v>
+        <v>142.8802428654388</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.9958157636663</v>
+        <v>195.4950517198479</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.0579694873278</v>
+        <v>176.8372783627893</v>
       </c>
       <c r="AD6" t="n">
-        <v>122051.1849477264</v>
+        <v>142880.2428654388</v>
       </c>
       <c r="AE6" t="n">
-        <v>166995.8157636664</v>
+        <v>195495.0517198479</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.987038909853711e-06</v>
+        <v>6.740287098831975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.081018518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>151057.9694873278</v>
+        <v>176837.2783627893</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>109.4141784834581</v>
+        <v>140.5722902426285</v>
       </c>
       <c r="AB7" t="n">
-        <v>149.7053060138847</v>
+        <v>192.3372091216368</v>
       </c>
       <c r="AC7" t="n">
-        <v>135.4176417206769</v>
+        <v>173.9808158300905</v>
       </c>
       <c r="AD7" t="n">
-        <v>109414.1784834581</v>
+        <v>140572.2902426285</v>
       </c>
       <c r="AE7" t="n">
-        <v>149705.3060138847</v>
+        <v>192337.2091216368</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.056888373743294e-06</v>
+        <v>6.858371083202362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.996141975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>135417.6417206769</v>
+        <v>173980.8158300905</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.52499832489</v>
+        <v>138.6831100840604</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.1204463761867</v>
+        <v>189.7523494839388</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.0794774589267</v>
+        <v>171.6426515683404</v>
       </c>
       <c r="AD8" t="n">
-        <v>107524.99832489</v>
+        <v>138683.1100840604</v>
       </c>
       <c r="AE8" t="n">
-        <v>147120.4463761867</v>
+        <v>189752.3494839388</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.120540667152447e-06</v>
+        <v>6.965978443395523e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>133079.4774589267</v>
+        <v>171642.6515683404</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>105.9173611860817</v>
+        <v>137.0754729452521</v>
       </c>
       <c r="AB9" t="n">
-        <v>144.9208063189253</v>
+        <v>187.5527094266774</v>
       </c>
       <c r="AC9" t="n">
-        <v>131.0897679615154</v>
+        <v>169.652942070929</v>
       </c>
       <c r="AD9" t="n">
-        <v>105917.3611860817</v>
+        <v>137075.4729452521</v>
       </c>
       <c r="AE9" t="n">
-        <v>144920.8063189253</v>
+        <v>187552.7094266774</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.166389225028842e-06</v>
+        <v>7.043487705316836e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.864969135802469</v>
       </c>
       <c r="AH9" t="n">
-        <v>131089.7679615154</v>
+        <v>169652.942070929</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>105.0755123260656</v>
+        <v>136.2336240852361</v>
       </c>
       <c r="AB10" t="n">
-        <v>143.7689515689014</v>
+        <v>186.4008546766535</v>
       </c>
       <c r="AC10" t="n">
-        <v>130.0478446121951</v>
+        <v>168.6110187216088</v>
       </c>
       <c r="AD10" t="n">
-        <v>105075.5123260657</v>
+        <v>136233.6240852361</v>
       </c>
       <c r="AE10" t="n">
-        <v>143768.9515689014</v>
+        <v>186400.8546766535</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.185558438803051e-06</v>
+        <v>7.075894212305701e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.841820987654321</v>
       </c>
       <c r="AH10" t="n">
-        <v>130047.8446121952</v>
+        <v>168611.0187216088</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>104.1483231511905</v>
+        <v>135.306434910361</v>
       </c>
       <c r="AB11" t="n">
-        <v>142.5003304351384</v>
+        <v>185.1322335428905</v>
       </c>
       <c r="AC11" t="n">
-        <v>128.9002988989172</v>
+        <v>167.4634730083308</v>
       </c>
       <c r="AD11" t="n">
-        <v>104148.3231511905</v>
+        <v>135306.434910361</v>
       </c>
       <c r="AE11" t="n">
-        <v>142500.3304351384</v>
+        <v>185132.2335428905</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207458609060161e-06</v>
+        <v>7.112917536728596e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>128900.2988989172</v>
+        <v>167463.4730083308</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.2719084015013</v>
+        <v>134.4300201606718</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.3011811099243</v>
+        <v>183.9330842176764</v>
       </c>
       <c r="AC12" t="n">
-        <v>127.8155947022844</v>
+        <v>166.3787688116981</v>
       </c>
       <c r="AD12" t="n">
-        <v>103271.9084015013</v>
+        <v>134430.0201606718</v>
       </c>
       <c r="AE12" t="n">
-        <v>141301.1811099243</v>
+        <v>183933.0842176764</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.227888264288016e-06</v>
+        <v>7.147454882533167e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>127815.5947022844</v>
+        <v>166378.7688116981</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.9887954550918</v>
+        <v>133.1469072142622</v>
       </c>
       <c r="AB13" t="n">
-        <v>139.5455693696996</v>
+        <v>182.1774724774517</v>
       </c>
       <c r="AC13" t="n">
-        <v>126.2275360825297</v>
+        <v>164.7907101919433</v>
       </c>
       <c r="AD13" t="n">
-        <v>101988.7954550918</v>
+        <v>133146.9072142622</v>
       </c>
       <c r="AE13" t="n">
-        <v>139545.5693696996</v>
+        <v>182177.4724774517</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.253832350875576e-06</v>
+        <v>7.191314648156454e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.764660493827161</v>
       </c>
       <c r="AH13" t="n">
-        <v>126227.5360825297</v>
+        <v>164790.7101919433</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.199049877535</v>
+        <v>132.3571616367054</v>
       </c>
       <c r="AB14" t="n">
-        <v>138.465004629371</v>
+        <v>181.0969077371231</v>
       </c>
       <c r="AC14" t="n">
-        <v>125.2500989244355</v>
+        <v>163.8132730338492</v>
       </c>
       <c r="AD14" t="n">
-        <v>101199.049877535</v>
+        <v>132357.1616367054</v>
       </c>
       <c r="AE14" t="n">
-        <v>138465.004629371</v>
+        <v>181096.9077371231</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.248580511485382e-06</v>
+        <v>7.182436153091011e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.768518518518518</v>
       </c>
       <c r="AH14" t="n">
-        <v>125250.0989244355</v>
+        <v>163813.2730338492</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>100.3854971089279</v>
+        <v>131.5436088680983</v>
       </c>
       <c r="AB15" t="n">
-        <v>137.3518658399482</v>
+        <v>179.9837689477003</v>
       </c>
       <c r="AC15" t="n">
-        <v>124.2431965387749</v>
+        <v>162.8063706481885</v>
       </c>
       <c r="AD15" t="n">
-        <v>100385.4971089279</v>
+        <v>131543.6088680983</v>
       </c>
       <c r="AE15" t="n">
-        <v>137351.8658399482</v>
+        <v>179983.7689477003</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.278988661554606e-06</v>
+        <v>7.233842639519924e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.733796296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>124243.1965387748</v>
+        <v>162806.3706481885</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>99.84864537601266</v>
+        <v>131.0067571351831</v>
       </c>
       <c r="AB16" t="n">
-        <v>136.6173216147471</v>
+        <v>179.2492247224992</v>
       </c>
       <c r="AC16" t="n">
-        <v>123.5787561834874</v>
+        <v>162.141930292901</v>
       </c>
       <c r="AD16" t="n">
-        <v>99848.64537601266</v>
+        <v>131006.7571351831</v>
       </c>
       <c r="AE16" t="n">
-        <v>136617.3216147471</v>
+        <v>179249.2247224992</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.276730370616823e-06</v>
+        <v>7.230024886641784e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH16" t="n">
-        <v>123578.7561834874</v>
+        <v>162141.930292901</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>99.20276030662414</v>
+        <v>130.3608720657946</v>
       </c>
       <c r="AB17" t="n">
-        <v>135.733593168372</v>
+        <v>178.3654962761241</v>
       </c>
       <c r="AC17" t="n">
-        <v>122.7793695397133</v>
+        <v>161.342543649127</v>
       </c>
       <c r="AD17" t="n">
-        <v>99202.76030662414</v>
+        <v>130360.8720657946</v>
       </c>
       <c r="AE17" t="n">
-        <v>135733.593168372</v>
+        <v>178365.4962761241</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.301571570932441e-06</v>
+        <v>7.272020168301327e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH17" t="n">
-        <v>122779.3695397133</v>
+        <v>161342.543649127</v>
       </c>
     </row>
     <row r="18">
@@ -6248,28 +6248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>99.40780261980302</v>
+        <v>130.5659143789735</v>
       </c>
       <c r="AB18" t="n">
-        <v>136.0141411070916</v>
+        <v>178.6460442148437</v>
       </c>
       <c r="AC18" t="n">
-        <v>123.0331423769132</v>
+        <v>161.5963164863268</v>
       </c>
       <c r="AD18" t="n">
-        <v>99407.80261980303</v>
+        <v>130565.9143789735</v>
       </c>
       <c r="AE18" t="n">
-        <v>136014.1411070916</v>
+        <v>178646.0442148437</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.301729126114146e-06</v>
+        <v>7.272286523153289e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.710648148148149</v>
       </c>
       <c r="AH18" t="n">
-        <v>123033.1423769132</v>
+        <v>161596.3164863268</v>
       </c>
     </row>
   </sheetData>
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.580243210048</v>
+        <v>208.852036250179</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.3413671641769</v>
+        <v>285.7605698989177</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.0217700173613</v>
+        <v>258.4879821753278</v>
       </c>
       <c r="AD2" t="n">
-        <v>178580.243210048</v>
+        <v>208852.036250179</v>
       </c>
       <c r="AE2" t="n">
-        <v>244341.3671641769</v>
+        <v>285760.5698989177</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919615349747854e-06</v>
+        <v>5.056163608002944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.179783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>221021.7700173614</v>
+        <v>258487.9821753278</v>
       </c>
     </row>
     <row r="3">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.1116505106881</v>
+        <v>155.3833540422681</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.1832797651199</v>
+        <v>212.6023600303123</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.8457878016266</v>
+        <v>192.3118891783665</v>
       </c>
       <c r="AD3" t="n">
-        <v>125111.6505106881</v>
+        <v>155383.3540422681</v>
       </c>
       <c r="AE3" t="n">
-        <v>171183.27976512</v>
+        <v>212602.3600303123</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.729940494270255e-06</v>
+        <v>6.459477406424276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.621141975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>154845.7878016266</v>
+        <v>192311.8891783665</v>
       </c>
     </row>
     <row r="4">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.9506523048873</v>
+        <v>137.1318775011583</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.0170419821183</v>
+        <v>187.6298846284616</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.7452400807179</v>
+        <v>169.722751779771</v>
       </c>
       <c r="AD4" t="n">
-        <v>116950.6523048873</v>
+        <v>137131.8775011583</v>
       </c>
       <c r="AE4" t="n">
-        <v>160017.0419821182</v>
+        <v>187629.8846284616</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.03103482554368e-06</v>
+        <v>6.98090986172773e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.200617283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>144745.2400807179</v>
+        <v>169722.751779771</v>
       </c>
     </row>
     <row r="5">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.7765326860608</v>
+        <v>132.9577578823318</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.3058273704818</v>
+        <v>181.9186700168251</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.5790957758741</v>
+        <v>164.5566074749273</v>
       </c>
       <c r="AD5" t="n">
-        <v>112776.5326860608</v>
+        <v>132957.7578823318</v>
       </c>
       <c r="AE5" t="n">
-        <v>154305.8273704818</v>
+        <v>181918.6700168251</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.192556559011e-06</v>
+        <v>7.260631747259516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>139579.0957758741</v>
+        <v>164556.6074749273</v>
       </c>
     </row>
     <row r="6">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.7626855089144</v>
+        <v>129.9490481859228</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.4997075323016</v>
+        <v>177.8020206752964</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.4723670239981</v>
+        <v>160.8328453687992</v>
       </c>
       <c r="AD6" t="n">
-        <v>99762.68550891441</v>
+        <v>129949.0481859228</v>
       </c>
       <c r="AE6" t="n">
-        <v>136499.7075323016</v>
+        <v>177802.0206752964</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299096794237848e-06</v>
+        <v>7.445137168560504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.876543209876544</v>
       </c>
       <c r="AH6" t="n">
-        <v>123472.3670239981</v>
+        <v>160832.8453687991</v>
       </c>
     </row>
     <row r="7">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>98.09362282028096</v>
+        <v>128.2799854972893</v>
       </c>
       <c r="AB7" t="n">
-        <v>134.2160223278655</v>
+        <v>175.5183354708603</v>
       </c>
       <c r="AC7" t="n">
-        <v>121.4066335303003</v>
+        <v>158.7671118751013</v>
       </c>
       <c r="AD7" t="n">
-        <v>98093.62282028096</v>
+        <v>128279.9854972893</v>
       </c>
       <c r="AE7" t="n">
-        <v>134216.0223278655</v>
+        <v>175518.3354708602</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.359565576393627e-06</v>
+        <v>7.549856461731336e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.807098765432099</v>
       </c>
       <c r="AH7" t="n">
-        <v>121406.6335303003</v>
+        <v>158767.1118751013</v>
       </c>
     </row>
     <row r="8">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.66654993202376</v>
+        <v>126.8529126090321</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.2634382441405</v>
+        <v>173.5657513871352</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.6404013310564</v>
+        <v>157.0008796758574</v>
       </c>
       <c r="AD8" t="n">
-        <v>96666.54993202376</v>
+        <v>126852.9126090321</v>
       </c>
       <c r="AE8" t="n">
-        <v>132263.4382441405</v>
+        <v>173565.7513871352</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.400367063724254e-06</v>
+        <v>7.620516110582452e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.764660493827161</v>
       </c>
       <c r="AH8" t="n">
-        <v>119640.4013310564</v>
+        <v>157000.8796758575</v>
       </c>
     </row>
     <row r="9">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>95.38418921789845</v>
+        <v>125.5705518949068</v>
       </c>
       <c r="AB9" t="n">
-        <v>130.5088557413132</v>
+        <v>171.811168884308</v>
       </c>
       <c r="AC9" t="n">
-        <v>118.0532737197264</v>
+        <v>155.4137520645274</v>
       </c>
       <c r="AD9" t="n">
-        <v>95384.18921789846</v>
+        <v>125570.5518949068</v>
       </c>
       <c r="AE9" t="n">
-        <v>130508.8557413132</v>
+        <v>171811.168884308</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.423620108434653e-06</v>
+        <v>7.660785524308524e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH9" t="n">
-        <v>118053.2737197264</v>
+        <v>155413.7520645274</v>
       </c>
     </row>
     <row r="10">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.88446011187965</v>
+        <v>124.070822788888</v>
       </c>
       <c r="AB10" t="n">
-        <v>128.4568602150807</v>
+        <v>169.7591733580755</v>
       </c>
       <c r="AC10" t="n">
-        <v>116.197117766523</v>
+        <v>153.5575961113241</v>
       </c>
       <c r="AD10" t="n">
-        <v>93884.46011187964</v>
+        <v>124070.822788888</v>
       </c>
       <c r="AE10" t="n">
-        <v>128456.8602150807</v>
+        <v>169759.1733580755</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.469637231962006e-06</v>
+        <v>7.740477565023431e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.691358024691358</v>
       </c>
       <c r="AH10" t="n">
-        <v>116197.117766523</v>
+        <v>153557.5961113241</v>
       </c>
     </row>
     <row r="11">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.65761142367818</v>
+        <v>122.8439741006866</v>
       </c>
       <c r="AB11" t="n">
-        <v>126.7782317151401</v>
+        <v>168.0805448581349</v>
       </c>
       <c r="AC11" t="n">
-        <v>114.6786952146464</v>
+        <v>152.0391735594474</v>
       </c>
       <c r="AD11" t="n">
-        <v>92657.61142367817</v>
+        <v>122843.9741006866</v>
       </c>
       <c r="AE11" t="n">
-        <v>126778.2317151401</v>
+        <v>168080.5448581349</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.490880083554916e-06</v>
+        <v>7.777265744385331e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.66820987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>114678.6952146464</v>
+        <v>152039.1735594474</v>
       </c>
     </row>
     <row r="12">
@@ -7605,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>92.10220106534436</v>
+        <v>122.2885637423527</v>
       </c>
       <c r="AB12" t="n">
-        <v>126.0182947598925</v>
+        <v>167.3206079028873</v>
       </c>
       <c r="AC12" t="n">
-        <v>113.9912855758291</v>
+        <v>151.3517639206302</v>
       </c>
       <c r="AD12" t="n">
-        <v>92102.20106534436</v>
+        <v>122288.5637423527</v>
       </c>
       <c r="AE12" t="n">
-        <v>126018.2947598925</v>
+        <v>167320.6079028873</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.485718776901908e-06</v>
+        <v>7.768327439936789e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.672067901234567</v>
       </c>
       <c r="AH12" t="n">
-        <v>113991.2855758291</v>
+        <v>151351.7639206302</v>
       </c>
     </row>
   </sheetData>
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.73297155547537</v>
+        <v>124.9084761930289</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.7225633565479</v>
+        <v>170.9052877002806</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.960269590631</v>
+        <v>154.5943269092911</v>
       </c>
       <c r="AD2" t="n">
-        <v>97732.97155547538</v>
+        <v>124908.4761930289</v>
       </c>
       <c r="AE2" t="n">
-        <v>133722.5633565478</v>
+        <v>170905.2877002805</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305445642505351e-06</v>
+        <v>8.146829643260453e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.432098765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>120960.269590631</v>
+        <v>154594.3269092911</v>
       </c>
     </row>
     <row r="3">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.66920337111192</v>
+        <v>105.929959354686</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6386746926198</v>
+        <v>144.9380436890017</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.36579065181228</v>
+        <v>131.1053602211846</v>
       </c>
       <c r="AD3" t="n">
-        <v>78669.20337111191</v>
+        <v>105929.959354686</v>
       </c>
       <c r="AE3" t="n">
-        <v>107638.6746926198</v>
+        <v>144938.0436890017</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.880826661570928e-06</v>
+        <v>9.235574347412651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>97365.79065181228</v>
+        <v>131105.3602211846</v>
       </c>
     </row>
     <row r="4">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.09619497120772</v>
+        <v>93.41226705120981</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.7499269698677</v>
+        <v>127.810784837785</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.94361815031755</v>
+        <v>115.6127029164637</v>
       </c>
       <c r="AD4" t="n">
-        <v>75096.19497120772</v>
+        <v>93412.26705120981</v>
       </c>
       <c r="AE4" t="n">
-        <v>102749.9269698677</v>
+        <v>127810.784837785</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.06803312947468e-06</v>
+        <v>9.589809269593876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.614197530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>92943.61815031755</v>
+        <v>115612.7029164637</v>
       </c>
     </row>
     <row r="5">
@@ -8220,28 +8220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.87067994836094</v>
+        <v>93.18675202836306</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.4413673665882</v>
+        <v>127.5022252345055</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.66450704250887</v>
+        <v>115.3335918086551</v>
       </c>
       <c r="AD5" t="n">
-        <v>74870.67994836095</v>
+        <v>93186.75202836306</v>
       </c>
       <c r="AE5" t="n">
-        <v>102441.3673665882</v>
+        <v>127502.2252345055</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.077490451039767e-06</v>
+        <v>9.607704557113394e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>92664.50704250888</v>
+        <v>115333.5918086551</v>
       </c>
     </row>
   </sheetData>
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0896416402254</v>
+        <v>153.9054830469715</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.8389692056188</v>
+        <v>210.5802717354818</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6796009165716</v>
+        <v>190.4827861523752</v>
       </c>
       <c r="AD2" t="n">
-        <v>116089.6416402254</v>
+        <v>153905.4830469715</v>
       </c>
       <c r="AE2" t="n">
-        <v>158838.9692056188</v>
+        <v>210580.2717354818</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.753502631458916e-06</v>
+        <v>6.838066628409652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.960648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>143679.6009165717</v>
+        <v>190482.7861523752</v>
       </c>
     </row>
     <row r="3">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.6300823946076</v>
+        <v>119.6234334611033</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.6865182181563</v>
+        <v>163.6740590748338</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.5459101636944</v>
+        <v>148.0532365947616</v>
       </c>
       <c r="AD3" t="n">
-        <v>100630.0823946076</v>
+        <v>119623.4334611033</v>
       </c>
       <c r="AE3" t="n">
-        <v>137686.5182181563</v>
+        <v>163674.0590748338</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.426614878877946e-06</v>
+        <v>8.064330960202826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.054012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>124545.9101636944</v>
+        <v>148053.2365947616</v>
       </c>
     </row>
     <row r="4">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.370480092883</v>
+        <v>114.7750315752284</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.1759012596918</v>
+        <v>157.0402617181879</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.8973591044167</v>
+        <v>142.0525595472388</v>
       </c>
       <c r="AD4" t="n">
-        <v>86370.48009288299</v>
+        <v>114775.0315752284</v>
       </c>
       <c r="AE4" t="n">
-        <v>118175.9012596918</v>
+        <v>157040.2617181879</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.657964590661033e-06</v>
+        <v>8.485799891748835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.80324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>106897.3591044167</v>
+        <v>142052.5595472388</v>
       </c>
     </row>
     <row r="5">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.75695199049666</v>
+        <v>112.161503472842</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.5999568092863</v>
+        <v>153.4643172677823</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.6626977734872</v>
+        <v>138.8178982163092</v>
       </c>
       <c r="AD5" t="n">
-        <v>83756.95199049666</v>
+        <v>112161.503472842</v>
       </c>
       <c r="AE5" t="n">
-        <v>114599.9568092863</v>
+        <v>153464.3172677823</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.771638552830713e-06</v>
+        <v>8.692889163704255e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>103662.6977734872</v>
+        <v>138817.8982163092</v>
       </c>
     </row>
     <row r="6">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.40922091695595</v>
+        <v>100.4878233294722</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.3876875798845</v>
+        <v>137.4918730892112</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.7570030108902</v>
+        <v>124.3698416926696</v>
       </c>
       <c r="AD6" t="n">
-        <v>81409.22091695595</v>
+        <v>100487.8233294722</v>
       </c>
       <c r="AE6" t="n">
-        <v>111387.6875798845</v>
+        <v>137491.8730892112</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.861185796499072e-06</v>
+        <v>8.856024794265056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.602623456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>100757.0030108902</v>
+        <v>124369.8416926696</v>
       </c>
     </row>
     <row r="7">
@@ -9047,28 +9047,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.97809929787191</v>
+        <v>100.0567017103882</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.7978079609105</v>
+        <v>136.9019934702372</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.2234206748497</v>
+        <v>123.8362593566291</v>
       </c>
       <c r="AD7" t="n">
-        <v>80978.0992978719</v>
+        <v>100056.7017103882</v>
       </c>
       <c r="AE7" t="n">
-        <v>110797.8079609105</v>
+        <v>136901.9934702372</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.877540927790833e-06</v>
+        <v>8.885820291556603e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.587191358024692</v>
       </c>
       <c r="AH7" t="n">
-        <v>100223.4206748497</v>
+        <v>123836.2593566291</v>
       </c>
     </row>
   </sheetData>
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.04452167052361</v>
+        <v>102.6499111132091</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.3616664490636</v>
+        <v>140.4501369794995</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.2562723178197</v>
+        <v>127.0457730292192</v>
       </c>
       <c r="AD2" t="n">
-        <v>85044.52167052361</v>
+        <v>102649.9111132091</v>
       </c>
       <c r="AE2" t="n">
-        <v>116361.6664490636</v>
+        <v>140450.1369794995</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.791986153891029e-06</v>
+        <v>9.390748881446567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>105256.2723178197</v>
+        <v>127045.7730292192</v>
       </c>
     </row>
     <row r="3">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.72289238022881</v>
+        <v>96.04550142685878</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.39793731151408</v>
+        <v>131.4136922806479</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.2932920663726</v>
+        <v>118.8717539296933</v>
       </c>
       <c r="AD3" t="n">
-        <v>69722.89238022882</v>
+        <v>96045.50142685878</v>
       </c>
       <c r="AE3" t="n">
-        <v>95397.93731151409</v>
+        <v>131413.6922806479</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.22611587128051e-06</v>
+        <v>1.024150325073198e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.64891975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>86293.2920663726</v>
+        <v>118871.7539296933</v>
       </c>
     </row>
     <row r="4">
@@ -9556,28 +9556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.7992037468547</v>
+        <v>96.12181279348468</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.50234988995146</v>
+        <v>131.5181048590853</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.38773965486793</v>
+        <v>118.9662015181886</v>
       </c>
       <c r="AD4" t="n">
-        <v>69799.20374685471</v>
+        <v>96121.81279348469</v>
       </c>
       <c r="AE4" t="n">
-        <v>95502.34988995147</v>
+        <v>131518.1048590853</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.250671431800001e-06</v>
+        <v>1.02896242375371e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.625771604938271</v>
       </c>
       <c r="AH4" t="n">
-        <v>86387.73965486792</v>
+        <v>118966.2015181886</v>
       </c>
     </row>
   </sheetData>
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.4231082399303</v>
+        <v>227.955341999402</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.4405652177277</v>
+        <v>311.8985556033608</v>
       </c>
       <c r="AC2" t="n">
-        <v>231.9662375900163</v>
+        <v>282.1313952090405</v>
       </c>
       <c r="AD2" t="n">
-        <v>187423.1082399304</v>
+        <v>227955.341999402</v>
       </c>
       <c r="AE2" t="n">
-        <v>256440.5652177277</v>
+        <v>311898.5556033608</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797227726035713e-06</v>
+        <v>4.812577735153057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.426697530864199</v>
       </c>
       <c r="AH2" t="n">
-        <v>231966.2375900163</v>
+        <v>282131.3952090405</v>
       </c>
     </row>
     <row r="3">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3389653481395</v>
+        <v>159.8660848181873</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.9672784216864</v>
+        <v>218.7358300420463</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.0777697443054</v>
+        <v>197.8599894205618</v>
       </c>
       <c r="AD3" t="n">
-        <v>129338.9653481395</v>
+        <v>159866.0848181873</v>
       </c>
       <c r="AE3" t="n">
-        <v>176967.2784216864</v>
+        <v>218735.8300420463</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.630963435959356e-06</v>
+        <v>6.247004355922696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.721450617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>160077.7697443053</v>
+        <v>197859.9894205618</v>
       </c>
     </row>
     <row r="4">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.675619869956</v>
+        <v>151.0321471394116</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.1137069386136</v>
+        <v>206.6488467841266</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.3554864869812</v>
+        <v>186.9265708805866</v>
       </c>
       <c r="AD4" t="n">
-        <v>120675.619869956</v>
+        <v>151032.1471394117</v>
       </c>
       <c r="AE4" t="n">
-        <v>165113.7069386136</v>
+        <v>206648.8467841267</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929891473511572e-06</v>
+        <v>6.761304426863158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.285493827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>149355.4864869812</v>
+        <v>186926.5708805866</v>
       </c>
     </row>
     <row r="5">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.8351075744388</v>
+        <v>136.1866100630217</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.4907044675592</v>
+        <v>186.3365280173475</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.3645740763197</v>
+        <v>168.5528313083839</v>
       </c>
       <c r="AD5" t="n">
-        <v>115835.1075744387</v>
+        <v>136186.6100630217</v>
       </c>
       <c r="AE5" t="n">
-        <v>158490.7044675592</v>
+        <v>186336.5280173475</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.109937467311034e-06</v>
+        <v>7.071070175642858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.054012345679013</v>
       </c>
       <c r="AH5" t="n">
-        <v>143364.5740763198</v>
+        <v>168552.8313083839</v>
       </c>
     </row>
     <row r="6">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>102.9995077119838</v>
+        <v>133.44128632746</v>
       </c>
       <c r="AB6" t="n">
-        <v>140.9284704690562</v>
+        <v>182.5802549672185</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.478455041878</v>
+        <v>165.1550516861957</v>
       </c>
       <c r="AD6" t="n">
-        <v>102999.5077119838</v>
+        <v>133441.28632746</v>
       </c>
       <c r="AE6" t="n">
-        <v>140928.4704690563</v>
+        <v>182580.2549672185</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.208736629578382e-06</v>
+        <v>7.241052277619758e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH6" t="n">
-        <v>127478.455041878</v>
+        <v>165155.0516861957</v>
       </c>
     </row>
     <row r="7">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.9336082108847</v>
+        <v>131.3753868263609</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.1018156306004</v>
+        <v>179.7536001287627</v>
       </c>
       <c r="AC7" t="n">
-        <v>124.9215721739686</v>
+        <v>162.5981688182862</v>
       </c>
       <c r="AD7" t="n">
-        <v>100933.6082108847</v>
+        <v>131375.3868263609</v>
       </c>
       <c r="AE7" t="n">
-        <v>138101.8156306004</v>
+        <v>179753.6001287627</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.277922963918187e-06</v>
+        <v>7.360086065652629e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.857253086419753</v>
       </c>
       <c r="AH7" t="n">
-        <v>124921.5721739686</v>
+        <v>162598.1688182862</v>
       </c>
     </row>
     <row r="8">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>99.83851088668368</v>
+        <v>130.2802895021599</v>
       </c>
       <c r="AB8" t="n">
-        <v>136.6034551593451</v>
+        <v>178.2552396575073</v>
       </c>
       <c r="AC8" t="n">
-        <v>123.5662131231272</v>
+        <v>161.2428097674448</v>
       </c>
       <c r="AD8" t="n">
-        <v>99838.51088668368</v>
+        <v>130280.2895021599</v>
       </c>
       <c r="AE8" t="n">
-        <v>136603.4551593451</v>
+        <v>178255.2396575073</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.308827987973477e-06</v>
+        <v>7.413257578750579e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.822530864197531</v>
       </c>
       <c r="AH8" t="n">
-        <v>123566.2131231272</v>
+        <v>161242.8097674449</v>
       </c>
     </row>
     <row r="9">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>98.0845169192107</v>
+        <v>128.5262955346869</v>
       </c>
       <c r="AB9" t="n">
-        <v>134.2035632322972</v>
+        <v>175.8553477304594</v>
       </c>
       <c r="AC9" t="n">
-        <v>121.3953635133265</v>
+        <v>159.0719601576442</v>
       </c>
       <c r="AD9" t="n">
-        <v>98084.5169192107</v>
+        <v>128526.2955346869</v>
       </c>
       <c r="AE9" t="n">
-        <v>134203.5632322972</v>
+        <v>175855.3477304594</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.360246625556757e-06</v>
+        <v>7.501722378417032e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.764660493827161</v>
       </c>
       <c r="AH9" t="n">
-        <v>121395.3635133265</v>
+        <v>159071.9601576442</v>
       </c>
     </row>
     <row r="10">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.8063585294997</v>
+        <v>127.2481371449759</v>
       </c>
       <c r="AB10" t="n">
-        <v>132.454730535127</v>
+        <v>174.1065150332892</v>
       </c>
       <c r="AC10" t="n">
-        <v>119.8134369542716</v>
+        <v>157.4900335985892</v>
       </c>
       <c r="AD10" t="n">
-        <v>96806.3585294997</v>
+        <v>127248.1371449759</v>
       </c>
       <c r="AE10" t="n">
-        <v>132454.730535127</v>
+        <v>174106.5150332892</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.382698533276367e-06</v>
+        <v>7.540350463716414e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH10" t="n">
-        <v>119813.4369542716</v>
+        <v>157490.0335985892</v>
       </c>
     </row>
     <row r="11">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>95.88932009235857</v>
+        <v>126.3310987078348</v>
       </c>
       <c r="AB11" t="n">
-        <v>131.1999980885506</v>
+        <v>172.8517825867129</v>
       </c>
       <c r="AC11" t="n">
-        <v>118.678454411368</v>
+        <v>156.3550510556856</v>
       </c>
       <c r="AD11" t="n">
-        <v>95889.32009235857</v>
+        <v>126331.0987078348</v>
       </c>
       <c r="AE11" t="n">
-        <v>131199.9980885506</v>
+        <v>172851.7825867129</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.39868946035724e-06</v>
+        <v>7.56786255324619e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>118678.454411368</v>
+        <v>156355.0510556856</v>
       </c>
     </row>
     <row r="12">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.608057621352</v>
+        <v>125.0498362368282</v>
       </c>
       <c r="AB12" t="n">
-        <v>129.4469182504094</v>
+        <v>171.0987027485716</v>
       </c>
       <c r="AC12" t="n">
-        <v>117.0926860525155</v>
+        <v>154.7692826968331</v>
       </c>
       <c r="AD12" t="n">
-        <v>94608.057621352</v>
+        <v>125049.8362368282</v>
       </c>
       <c r="AE12" t="n">
-        <v>129446.9182504094</v>
+        <v>171098.7027485716</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.423510394311052e-06</v>
+        <v>7.610566503661095e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH12" t="n">
-        <v>117092.6860525155</v>
+        <v>154769.2826968331</v>
       </c>
     </row>
     <row r="13">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>93.93729484795608</v>
+        <v>124.3790734634323</v>
       </c>
       <c r="AB13" t="n">
-        <v>128.5291510318845</v>
+        <v>170.1809355300468</v>
       </c>
       <c r="AC13" t="n">
-        <v>116.2625092492319</v>
+        <v>153.9391058935495</v>
       </c>
       <c r="AD13" t="n">
-        <v>93937.29484795609</v>
+        <v>124379.0734634323</v>
       </c>
       <c r="AE13" t="n">
-        <v>128529.1510318845</v>
+        <v>170180.9355300468</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.443593275796459e-06</v>
+        <v>7.645118723844954e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>116262.5092492319</v>
+        <v>153939.1058935495</v>
       </c>
     </row>
     <row r="14">
@@ -11125,28 +11125,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>94.11641100590781</v>
+        <v>124.558189621384</v>
       </c>
       <c r="AB14" t="n">
-        <v>128.7742256612411</v>
+        <v>170.4260101594034</v>
       </c>
       <c r="AC14" t="n">
-        <v>116.4841942999272</v>
+        <v>154.1607909442448</v>
       </c>
       <c r="AD14" t="n">
-        <v>94116.41100590781</v>
+        <v>124558.1896213841</v>
       </c>
       <c r="AE14" t="n">
-        <v>128774.2256612411</v>
+        <v>170426.0101594034</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.44418553235501e-06</v>
+        <v>7.646137690123835e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>116484.1942999272</v>
+        <v>154160.7909442448</v>
       </c>
     </row>
   </sheetData>
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.49590692442385</v>
+        <v>95.2629925186157</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.08736579699033</v>
+        <v>130.3430290705336</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.01236106130503</v>
+        <v>117.9032733136668</v>
       </c>
       <c r="AD2" t="n">
-        <v>69495.90692442385</v>
+        <v>95262.99251861571</v>
       </c>
       <c r="AE2" t="n">
-        <v>95087.36579699033</v>
+        <v>130343.0290705336</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.094244054735882e-06</v>
+        <v>1.021222920529038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.880401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>86012.36106130503</v>
+        <v>117903.2733136668</v>
       </c>
     </row>
     <row r="3">
@@ -11528,28 +11528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.74989012947027</v>
+        <v>92.51697572366214</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.33014447242577</v>
+        <v>126.5858077459691</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.61372366666247</v>
+        <v>114.5046359190242</v>
       </c>
       <c r="AD3" t="n">
-        <v>66749.89012947027</v>
+        <v>92516.97572366214</v>
       </c>
       <c r="AE3" t="n">
-        <v>91330.14447242577</v>
+        <v>126585.8077459691</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.316158759068168e-06</v>
+        <v>1.065709282005157e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>82613.72366666247</v>
+        <v>114504.6359190242</v>
       </c>
     </row>
   </sheetData>
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.1206748844758</v>
+        <v>175.6487709719918</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.9287537660632</v>
+        <v>240.3303975206427</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.8478341084552</v>
+        <v>217.3936016871736</v>
       </c>
       <c r="AD2" t="n">
-        <v>146120.6748844758</v>
+        <v>175648.7709719918</v>
       </c>
       <c r="AE2" t="n">
-        <v>199928.7537660633</v>
+        <v>240330.3975206428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.29509882995235e-06</v>
+        <v>5.835864876424436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.554783950617283</v>
       </c>
       <c r="AH2" t="n">
-        <v>180847.8341084552</v>
+        <v>217393.6016871736</v>
       </c>
     </row>
     <row r="3">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.6833995403804</v>
+        <v>141.9555625727326</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.1783984918175</v>
+        <v>194.2298633493526</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.463828530542</v>
+        <v>175.6928377946706</v>
       </c>
       <c r="AD3" t="n">
-        <v>112683.3995403804</v>
+        <v>141955.5625727327</v>
       </c>
       <c r="AE3" t="n">
-        <v>154178.3984918175</v>
+        <v>194229.8633493526</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.05861508790346e-06</v>
+        <v>7.188108903781982e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.320216049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>139463.828530542</v>
+        <v>175692.8377946706</v>
       </c>
     </row>
     <row r="4">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.43487962518181</v>
+        <v>125.7922940035546</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.9464567097469</v>
+        <v>172.1145662199312</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.3536720694188</v>
+        <v>155.6881935842597</v>
       </c>
       <c r="AD4" t="n">
-        <v>96434.87962518181</v>
+        <v>125792.2940035546</v>
       </c>
       <c r="AE4" t="n">
-        <v>131946.4567097469</v>
+        <v>172114.5662199312</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335137838217131e-06</v>
+        <v>7.677851242135814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH4" t="n">
-        <v>119353.6720694189</v>
+        <v>155688.1935842597</v>
       </c>
     </row>
     <row r="5">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.56804509187424</v>
+        <v>122.9254594702471</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.0239272254641</v>
+        <v>168.1920367356483</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.80550329381</v>
+        <v>152.1400248086509</v>
       </c>
       <c r="AD5" t="n">
-        <v>93568.04509187424</v>
+        <v>122925.4594702471</v>
       </c>
       <c r="AE5" t="n">
-        <v>128023.9272254641</v>
+        <v>168192.0367356483</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.458677455614353e-06</v>
+        <v>7.896649084392273e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.841820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>115805.50329381</v>
+        <v>152140.0248086509</v>
       </c>
     </row>
     <row r="6">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.09750660925997</v>
+        <v>120.4549209876328</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.6436274810873</v>
+        <v>164.8117369912716</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.747814612755</v>
+        <v>149.0823361275959</v>
       </c>
       <c r="AD6" t="n">
-        <v>91097.50660925996</v>
+        <v>120454.9209876328</v>
       </c>
       <c r="AE6" t="n">
-        <v>124643.6274810873</v>
+        <v>164811.7369912716</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.551654032187431e-06</v>
+        <v>8.061317510304361e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>112747.814612755</v>
+        <v>149082.3361275959</v>
       </c>
     </row>
     <row r="7">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.33849585948768</v>
+        <v>118.6959102378605</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.2368713711727</v>
+        <v>162.404980881357</v>
       </c>
       <c r="AC7" t="n">
-        <v>110.5707559280665</v>
+        <v>146.9052774429074</v>
       </c>
       <c r="AD7" t="n">
-        <v>89338.49585948768</v>
+        <v>118695.9102378605</v>
       </c>
       <c r="AE7" t="n">
-        <v>122236.8713711727</v>
+        <v>162404.980881357</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.611548636000312e-06</v>
+        <v>8.167395304239302e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.683641975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>110570.7559280665</v>
+        <v>146905.2774429074</v>
       </c>
     </row>
     <row r="8">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.77428530025131</v>
+        <v>117.1316996786241</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.096649475927</v>
+        <v>160.2647589861113</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.6347938066821</v>
+        <v>144.9693153215229</v>
       </c>
       <c r="AD8" t="n">
-        <v>87774.2853002513</v>
+        <v>117131.6996786241</v>
       </c>
       <c r="AE8" t="n">
-        <v>120096.649475927</v>
+        <v>160264.7589861113</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.652299357099169e-06</v>
+        <v>8.239567859365128e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.641203703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>108634.7938066821</v>
+        <v>144969.3153215229</v>
       </c>
     </row>
     <row r="9">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.56519341486558</v>
+        <v>106.2790377580668</v>
       </c>
       <c r="AB9" t="n">
-        <v>118.4423166169738</v>
+        <v>145.4156681607593</v>
       </c>
       <c r="AC9" t="n">
-        <v>107.138348153916</v>
+        <v>131.5374008837079</v>
       </c>
       <c r="AD9" t="n">
-        <v>86565.19341486557</v>
+        <v>106279.0377580668</v>
       </c>
       <c r="AE9" t="n">
-        <v>118442.3166169738</v>
+        <v>145415.6681607593</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.677656605255464e-06</v>
+        <v>8.284477430068426e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>107138.348153916</v>
+        <v>131537.4008837079</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.0359836050328</v>
+        <v>200.9594095257632</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.3365371744995</v>
+        <v>274.9615298164609</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.3079273109006</v>
+        <v>248.7195873217893</v>
       </c>
       <c r="AD2" t="n">
-        <v>161035.9836050328</v>
+        <v>200959.4095257632</v>
       </c>
       <c r="AE2" t="n">
-        <v>220336.5371744995</v>
+        <v>274961.5298164609</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032138323177388e-06</v>
+        <v>5.287784471715481e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>199307.9273109006</v>
+        <v>248719.5873217893</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8974574087807</v>
+        <v>150.9040324902572</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4172348460149</v>
+        <v>206.4735546691342</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6300461169043</v>
+        <v>186.7680083990249</v>
       </c>
       <c r="AD3" t="n">
-        <v>120897.4574087807</v>
+        <v>150904.0324902572</v>
       </c>
       <c r="AE3" t="n">
-        <v>165417.2348460149</v>
+        <v>206473.5546691342</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834309890777867e-06</v>
+        <v>6.686701640627675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.516975308641975</v>
       </c>
       <c r="AH3" t="n">
-        <v>149630.0461169043</v>
+        <v>186768.0083990249</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.3842997326784</v>
+        <v>133.3887726288804</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.1374010564532</v>
+        <v>182.5084034080812</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.3313052363777</v>
+        <v>165.090057539018</v>
       </c>
       <c r="AD4" t="n">
-        <v>113384.2997326784</v>
+        <v>133388.7726288804</v>
       </c>
       <c r="AE4" t="n">
-        <v>155137.4010564532</v>
+        <v>182508.4034080812</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.126143263620896e-06</v>
+        <v>7.195633560207997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH4" t="n">
-        <v>140331.3052363777</v>
+        <v>165090.057539018</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.55148001561631</v>
+        <v>129.4727142425212</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.2107268586426</v>
+        <v>177.1502795595642</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.210966260246</v>
+        <v>160.2433055104279</v>
       </c>
       <c r="AD5" t="n">
-        <v>99551.48001561631</v>
+        <v>129472.7142425212</v>
       </c>
       <c r="AE5" t="n">
-        <v>136210.7268586426</v>
+        <v>177150.2795595643</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.278339769848937e-06</v>
+        <v>7.46105097739187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>123210.966260246</v>
+        <v>160243.3055104279</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.34151187523592</v>
+        <v>127.2627461021408</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.1869509520623</v>
+        <v>174.126503652984</v>
       </c>
       <c r="AC6" t="n">
-        <v>120.4757752822926</v>
+        <v>157.5081145324745</v>
       </c>
       <c r="AD6" t="n">
-        <v>97341.51187523593</v>
+        <v>127262.7461021408</v>
       </c>
       <c r="AE6" t="n">
-        <v>133186.9509520623</v>
+        <v>174126.503652984</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.361650217762593e-06</v>
+        <v>7.606337123951259e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>120475.7752822926</v>
+        <v>157508.1145324745</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.42991643357759</v>
+        <v>125.3511506604825</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.5714217351477</v>
+        <v>171.5109744360694</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.1098685029213</v>
+        <v>155.1422077531031</v>
       </c>
       <c r="AD7" t="n">
-        <v>95429.91643357759</v>
+        <v>125351.1506604825</v>
       </c>
       <c r="AE7" t="n">
-        <v>130571.4217351477</v>
+        <v>171510.9744360694</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.419841386450143e-06</v>
+        <v>7.707817440935795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.787808641975309</v>
       </c>
       <c r="AH7" t="n">
-        <v>118109.8685029213</v>
+        <v>155142.2077531031</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.91040588253283</v>
+        <v>123.8316401094377</v>
       </c>
       <c r="AB8" t="n">
-        <v>128.492360363135</v>
+        <v>169.4319130640567</v>
       </c>
       <c r="AC8" t="n">
-        <v>116.2292298302718</v>
+        <v>153.2615690804537</v>
       </c>
       <c r="AD8" t="n">
-        <v>93910.40588253282</v>
+        <v>123831.6401094377</v>
       </c>
       <c r="AE8" t="n">
-        <v>128492.360363135</v>
+        <v>169431.9130640567</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.4661310625786e-06</v>
+        <v>7.788542594126134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH8" t="n">
-        <v>116229.2298302718</v>
+        <v>153261.5690804537</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.40116149185295</v>
+        <v>122.3223957187578</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.4273456046445</v>
+        <v>167.3668983055662</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.3612971820646</v>
+        <v>151.3936364322464</v>
       </c>
       <c r="AD9" t="n">
-        <v>92401.16149185295</v>
+        <v>122322.3957187578</v>
       </c>
       <c r="AE9" t="n">
-        <v>126427.3456046445</v>
+        <v>167366.8983055662</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.512311047531395e-06</v>
+        <v>7.869076455484266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH9" t="n">
-        <v>114361.2971820646</v>
+        <v>151393.6364322464</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.10306753556725</v>
+        <v>121.0243017624721</v>
       </c>
       <c r="AB10" t="n">
-        <v>124.6512361857917</v>
+        <v>165.5907888867134</v>
       </c>
       <c r="AC10" t="n">
-        <v>112.7546971533613</v>
+        <v>149.7870364035431</v>
       </c>
       <c r="AD10" t="n">
-        <v>91103.06753556724</v>
+        <v>121024.3017624721</v>
       </c>
       <c r="AE10" t="n">
-        <v>124651.2361857917</v>
+        <v>165590.7888867134</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.528929260643863e-06</v>
+        <v>7.898057168063265e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.672067901234567</v>
       </c>
       <c r="AH10" t="n">
-        <v>112754.6971533613</v>
+        <v>149787.0364035431</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.48013900628048</v>
+        <v>120.4013732331854</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.7989178903548</v>
+        <v>164.7384705912765</v>
       </c>
       <c r="AC11" t="n">
-        <v>111.9837229198044</v>
+        <v>149.0160621699862</v>
       </c>
       <c r="AD11" t="n">
-        <v>90480.13900628049</v>
+        <v>120401.3732331854</v>
       </c>
       <c r="AE11" t="n">
-        <v>123798.9178903548</v>
+        <v>164738.4705912765</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.555364833977886e-06</v>
+        <v>7.94415849962457e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.645061728395062</v>
       </c>
       <c r="AH11" t="n">
-        <v>111983.7229198044</v>
+        <v>149016.0621699863</v>
       </c>
     </row>
     <row r="12">
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>90.62981185515882</v>
+        <v>120.5510460820637</v>
       </c>
       <c r="AB12" t="n">
-        <v>124.0037068852902</v>
+        <v>164.9432595862118</v>
       </c>
       <c r="AC12" t="n">
-        <v>112.1689671404863</v>
+        <v>149.2013063906682</v>
       </c>
       <c r="AD12" t="n">
-        <v>90629.81185515883</v>
+        <v>120551.0460820637</v>
       </c>
       <c r="AE12" t="n">
-        <v>124003.7068852902</v>
+        <v>164943.2595862118</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.555913289856187e-06</v>
+        <v>7.945114958785595e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.645061728395062</v>
       </c>
       <c r="AH12" t="n">
-        <v>112168.9671404863</v>
+        <v>149201.3063906682</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.3604226856153</v>
+        <v>246.7101239810122</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.9831901807651</v>
+        <v>337.5596757131729</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.1665488723796</v>
+        <v>305.3434540311886</v>
       </c>
       <c r="AD2" t="n">
-        <v>205360.4226856153</v>
+        <v>246710.1239810122</v>
       </c>
       <c r="AE2" t="n">
-        <v>280983.1901807651</v>
+        <v>337559.6757131729</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.584126653131107e-06</v>
+        <v>4.392844043766045e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.905092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>254166.5488723796</v>
+        <v>305343.4540311886</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.1796698588972</v>
+        <v>169.1919458304448</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.0635203576555</v>
+        <v>231.4958845069614</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.0195633270916</v>
+        <v>209.4022421961983</v>
       </c>
       <c r="AD3" t="n">
-        <v>138179.6698588972</v>
+        <v>169191.9458304448</v>
       </c>
       <c r="AE3" t="n">
-        <v>189063.5203576555</v>
+        <v>231495.8845069614</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442149449745787e-06</v>
+        <v>5.851425931367144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.933641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>171019.5633270916</v>
+        <v>209402.2421961983</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.0060024774803</v>
+        <v>157.8476862484358</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.7752156989943</v>
+        <v>215.9741680734533</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.1903530077778</v>
+        <v>195.3618965942335</v>
       </c>
       <c r="AD4" t="n">
-        <v>127006.0024774803</v>
+        <v>157847.6862484358</v>
       </c>
       <c r="AE4" t="n">
-        <v>173775.2156989943</v>
+        <v>215974.1680734533</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>6.426471480587963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.401234567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>157190.3530077778</v>
+        <v>195361.8965942335</v>
       </c>
     </row>
     <row r="5">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.1259379471929</v>
+        <v>142.8008781034424</v>
       </c>
       <c r="AB5" t="n">
-        <v>167.098096115406</v>
+        <v>195.3864613511583</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.1504883458488</v>
+        <v>176.7390517064798</v>
       </c>
       <c r="AD5" t="n">
-        <v>122125.9379471929</v>
+        <v>142800.8781034424</v>
       </c>
       <c r="AE5" t="n">
-        <v>167098.096115406</v>
+        <v>195386.4613511583</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.949297672325292e-06</v>
+        <v>6.713544297804614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.169753086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>151150.4883458488</v>
+        <v>176739.0517064798</v>
       </c>
     </row>
     <row r="6">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.3842264785968</v>
+        <v>140.0591666348463</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.3467655283013</v>
+        <v>191.6351307640536</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.7571794849507</v>
+        <v>173.3457428455817</v>
       </c>
       <c r="AD6" t="n">
-        <v>119384.2264785968</v>
+        <v>140059.1666348463</v>
       </c>
       <c r="AE6" t="n">
-        <v>163346.7655283013</v>
+        <v>191635.1307640536</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.045274679375047e-06</v>
+        <v>6.876698848780724e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.050154320987655</v>
       </c>
       <c r="AH6" t="n">
-        <v>147757.1794849507</v>
+        <v>173345.7428455817</v>
       </c>
     </row>
     <row r="7">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>106.4780703112222</v>
+        <v>137.4050054281983</v>
       </c>
       <c r="AB7" t="n">
-        <v>145.6879932806829</v>
+        <v>188.0035903077911</v>
       </c>
       <c r="AC7" t="n">
-        <v>131.7837356763968</v>
+        <v>170.0607915135648</v>
       </c>
       <c r="AD7" t="n">
-        <v>106478.0703112222</v>
+        <v>137405.0054281983</v>
       </c>
       <c r="AE7" t="n">
-        <v>145687.9932806829</v>
+        <v>188003.5903077911</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.133628581617761e-06</v>
+        <v>7.026894626816647e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>131783.7356763968</v>
+        <v>170060.7915135648</v>
       </c>
     </row>
     <row r="8">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.0425618240286</v>
+        <v>135.9694969410046</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.7238672383408</v>
+        <v>186.039464265449</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.007063066867</v>
+        <v>168.2841189040349</v>
       </c>
       <c r="AD8" t="n">
-        <v>105042.5618240286</v>
+        <v>135969.4969410046</v>
       </c>
       <c r="AE8" t="n">
-        <v>143723.8672383408</v>
+        <v>186039.464265449</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.174920399322563e-06</v>
+        <v>7.097087980242663e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.891975308641975</v>
       </c>
       <c r="AH8" t="n">
-        <v>130007.063066867</v>
+        <v>168284.1189040349</v>
       </c>
     </row>
     <row r="9">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>103.5796381109307</v>
+        <v>134.5065732279067</v>
       </c>
       <c r="AB9" t="n">
-        <v>141.7222304744419</v>
+        <v>184.0378275015502</v>
       </c>
       <c r="AC9" t="n">
-        <v>128.1964597063992</v>
+        <v>166.4735155435671</v>
       </c>
       <c r="AD9" t="n">
-        <v>103579.6381109307</v>
+        <v>134506.5732279067</v>
       </c>
       <c r="AE9" t="n">
-        <v>141722.230474442</v>
+        <v>184037.8275015502</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.221717792721341e-06</v>
+        <v>7.176640447458815e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>128196.4597063992</v>
+        <v>166473.5155435671</v>
       </c>
     </row>
     <row r="10">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>102.5787795546701</v>
+        <v>133.5057146716461</v>
       </c>
       <c r="AB10" t="n">
-        <v>140.3528116430037</v>
+        <v>182.6684086701119</v>
       </c>
       <c r="AC10" t="n">
-        <v>126.9577362862416</v>
+        <v>165.2347921234095</v>
       </c>
       <c r="AD10" t="n">
-        <v>102578.7795546701</v>
+        <v>133505.7146716461</v>
       </c>
       <c r="AE10" t="n">
-        <v>140352.8116430037</v>
+        <v>182668.4086701119</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.242416639801569e-06</v>
+        <v>7.211827115650572e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>126957.7362862416</v>
+        <v>165234.7921234095</v>
       </c>
     </row>
     <row r="11">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>100.8695718607186</v>
+        <v>131.7965069776946</v>
       </c>
       <c r="AB11" t="n">
-        <v>138.0141982712188</v>
+        <v>180.329795298327</v>
       </c>
       <c r="AC11" t="n">
-        <v>124.8423168923946</v>
+        <v>163.1193727295625</v>
       </c>
       <c r="AD11" t="n">
-        <v>100869.5718607186</v>
+        <v>131796.5069776946</v>
       </c>
       <c r="AE11" t="n">
-        <v>138014.1982712188</v>
+        <v>180329.7952983271</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.286778874720319e-06</v>
+        <v>7.287239974844162e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.764660493827161</v>
       </c>
       <c r="AH11" t="n">
-        <v>124842.3168923946</v>
+        <v>163119.3727295625</v>
       </c>
     </row>
     <row r="12">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>100.4607989672649</v>
+        <v>131.387734084241</v>
       </c>
       <c r="AB12" t="n">
-        <v>137.4548971646085</v>
+        <v>179.7704941917167</v>
       </c>
       <c r="AC12" t="n">
-        <v>124.3363946984149</v>
+        <v>162.6134505355828</v>
       </c>
       <c r="AD12" t="n">
-        <v>100460.7989672649</v>
+        <v>131387.734084241</v>
       </c>
       <c r="AE12" t="n">
-        <v>137454.8971646085</v>
+        <v>179770.4941917167</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.284555469151599e-06</v>
+        <v>7.283460332736609e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.768518518518518</v>
       </c>
       <c r="AH12" t="n">
-        <v>124336.3946984149</v>
+        <v>162613.4505355828</v>
       </c>
     </row>
     <row r="13">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>99.26456047542852</v>
+        <v>130.1914955924046</v>
       </c>
       <c r="AB13" t="n">
-        <v>135.8181508857611</v>
+        <v>178.1337479128693</v>
       </c>
       <c r="AC13" t="n">
-        <v>122.8558571872324</v>
+        <v>161.1329130244003</v>
       </c>
       <c r="AD13" t="n">
-        <v>99264.56047542853</v>
+        <v>130191.4955924045</v>
       </c>
       <c r="AE13" t="n">
-        <v>135818.1508857611</v>
+        <v>178133.7479128693</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.310230509647533e-06</v>
+        <v>7.327106199930989e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH13" t="n">
-        <v>122855.8571872324</v>
+        <v>161132.9130244003</v>
       </c>
     </row>
     <row r="14">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>98.41647501262284</v>
+        <v>129.3434101295989</v>
       </c>
       <c r="AB14" t="n">
-        <v>134.6577629406609</v>
+        <v>176.9733599677691</v>
       </c>
       <c r="AC14" t="n">
-        <v>121.8062150389975</v>
+        <v>160.0832708761654</v>
       </c>
       <c r="AD14" t="n">
-        <v>98416.47501262285</v>
+        <v>129343.4101295989</v>
       </c>
       <c r="AE14" t="n">
-        <v>134657.7629406609</v>
+        <v>176973.3599677691</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.330135283310363e-06</v>
+        <v>7.36094299594148e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.718364197530864</v>
       </c>
       <c r="AH14" t="n">
-        <v>121806.2150389975</v>
+        <v>160083.2708761654</v>
       </c>
     </row>
     <row r="15">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>98.10327574552923</v>
+        <v>129.0302108625052</v>
       </c>
       <c r="AB15" t="n">
-        <v>134.2292298860472</v>
+        <v>176.5448269131554</v>
       </c>
       <c r="AC15" t="n">
-        <v>121.418580577666</v>
+        <v>159.695636414834</v>
       </c>
       <c r="AD15" t="n">
-        <v>98103.27574552923</v>
+        <v>129030.2108625052</v>
       </c>
       <c r="AE15" t="n">
-        <v>134229.2298860472</v>
+        <v>176544.8269131554</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.330399974449495e-06</v>
+        <v>7.361392953335236e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.714506172839506</v>
       </c>
       <c r="AH15" t="n">
-        <v>121418.580577666</v>
+        <v>159695.6364148339</v>
       </c>
     </row>
     <row r="16">
@@ -15705,28 +15705,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>98.00945931728005</v>
+        <v>128.9363944342561</v>
       </c>
       <c r="AB16" t="n">
-        <v>134.100866110028</v>
+        <v>176.4164631371362</v>
       </c>
       <c r="AC16" t="n">
-        <v>121.3024676602704</v>
+        <v>159.5795234974383</v>
       </c>
       <c r="AD16" t="n">
-        <v>98009.45931728005</v>
+        <v>128936.3944342561</v>
       </c>
       <c r="AE16" t="n">
-        <v>134100.866110028</v>
+        <v>176416.4631371362</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.330929356727763e-06</v>
+        <v>7.36229286812275e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.714506172839506</v>
       </c>
       <c r="AH16" t="n">
-        <v>121302.4676602704</v>
+        <v>159579.5234974383</v>
       </c>
     </row>
   </sheetData>
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.9503077766217</v>
+        <v>160.6894955140628</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.5402323366313</v>
+        <v>219.8624568824586</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.3097259522813</v>
+        <v>198.8790925765562</v>
       </c>
       <c r="AD2" t="n">
-        <v>131950.3077766217</v>
+        <v>160689.4955140628</v>
       </c>
       <c r="AE2" t="n">
-        <v>180540.2323366313</v>
+        <v>219862.4568824586</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600574566720582e-06</v>
+        <v>6.492687983555527e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>163309.7259522813</v>
+        <v>198879.0925765562</v>
       </c>
     </row>
     <row r="3">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7252163763857</v>
+        <v>123.9415986072445</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.289661196583</v>
+        <v>169.5823631317824</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6142970403224</v>
+        <v>153.3976604048737</v>
       </c>
       <c r="AD3" t="n">
-        <v>104725.2163763857</v>
+        <v>123941.5986072445</v>
       </c>
       <c r="AE3" t="n">
-        <v>143289.661196583</v>
+        <v>169582.3631317824</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.297391610944115e-06</v>
+        <v>7.749214009035814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.142746913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>129614.2970403224</v>
+        <v>153397.6604048737</v>
       </c>
     </row>
     <row r="4">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.76725118097102</v>
+        <v>118.506349409861</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.8235133173757</v>
+        <v>162.1456153936547</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.1014095902812</v>
+        <v>146.6706654333295</v>
       </c>
       <c r="AD4" t="n">
-        <v>89767.25118097101</v>
+        <v>118506.349409861</v>
       </c>
       <c r="AE4" t="n">
-        <v>122823.5133173757</v>
+        <v>162145.6153936546</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.549613379889659e-06</v>
+        <v>8.204029544189521e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.857253086419753</v>
       </c>
       <c r="AH4" t="n">
-        <v>111101.4095902812</v>
+        <v>146670.6654333295</v>
       </c>
     </row>
     <row r="5">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.02799732599128</v>
+        <v>115.7670955548812</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.0755453456432</v>
+        <v>158.3976474219222</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.7111424214636</v>
+        <v>143.2803982645119</v>
       </c>
       <c r="AD5" t="n">
-        <v>87027.99732599128</v>
+        <v>115767.0955548812</v>
       </c>
       <c r="AE5" t="n">
-        <v>119075.5453456432</v>
+        <v>158397.6474219222</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.666847249333695e-06</v>
+        <v>8.415429953013239e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.733796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>107711.1424214636</v>
+        <v>143280.3982645119</v>
       </c>
     </row>
     <row r="6">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.95857935480639</v>
+        <v>113.6976775836963</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.244076381192</v>
+        <v>155.5661784574709</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.149904880987</v>
+        <v>140.7191607240352</v>
       </c>
       <c r="AD6" t="n">
-        <v>84958.5793548064</v>
+        <v>113697.6775836963</v>
       </c>
       <c r="AE6" t="n">
-        <v>116244.076381192</v>
+        <v>155566.1784574709</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.746740384592331e-06</v>
+        <v>8.559496181791491e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.656635802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>105149.904880987</v>
+        <v>140719.1607240353</v>
       </c>
     </row>
     <row r="7">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.30384808206065</v>
+        <v>102.60548165894</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.9800000522308</v>
+        <v>140.3893466400795</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.1019088192101</v>
+        <v>126.9907844344736</v>
       </c>
       <c r="AD7" t="n">
-        <v>83303.84808206065</v>
+        <v>102605.48165894</v>
       </c>
       <c r="AE7" t="n">
-        <v>113980.0000522308</v>
+        <v>140389.3466400795</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.791354543994824e-06</v>
+        <v>8.639946068686297e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.610339506172839</v>
       </c>
       <c r="AH7" t="n">
-        <v>103101.9088192101</v>
+        <v>126990.7844344736</v>
       </c>
     </row>
     <row r="8">
@@ -16638,28 +16638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.95777686133242</v>
+        <v>102.2594104382118</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.506490140446</v>
+        <v>139.9158367282946</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.6735900288305</v>
+        <v>126.562465644094</v>
       </c>
       <c r="AD8" t="n">
-        <v>82957.77686133242</v>
+        <v>102259.4104382118</v>
       </c>
       <c r="AE8" t="n">
-        <v>113506.490140446</v>
+        <v>139915.8367282946</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.811456687705061e-06</v>
+        <v>8.676194990765989e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.59104938271605</v>
       </c>
       <c r="AH8" t="n">
-        <v>102673.5900288305</v>
+        <v>126562.465644094</v>
       </c>
     </row>
   </sheetData>
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.828385179771</v>
+        <v>131.5835466781994</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0625771879753</v>
+        <v>180.0384136214124</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5043242072726</v>
+        <v>162.8558001109357</v>
       </c>
       <c r="AD2" t="n">
-        <v>103828.385179771</v>
+        <v>131583.5466781994</v>
       </c>
       <c r="AE2" t="n">
-        <v>142062.5771879753</v>
+        <v>180038.4136214124</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105507411794843e-06</v>
+        <v>7.659564534779644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.60570987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>128504.3242072726</v>
+        <v>162855.8001109358</v>
       </c>
     </row>
     <row r="3">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.01292915285684</v>
+        <v>110.6827497967136</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.581951938857</v>
+        <v>151.4410212500965</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.7418498591125</v>
+        <v>136.9877027308369</v>
       </c>
       <c r="AD3" t="n">
-        <v>83012.92915285684</v>
+        <v>110682.7497967136</v>
       </c>
       <c r="AE3" t="n">
-        <v>113581.951938857</v>
+        <v>151441.0212500965</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712462458550063e-06</v>
+        <v>8.791948643251963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.88425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>102741.8498591125</v>
+        <v>136987.7027308369</v>
       </c>
     </row>
     <row r="4">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.1835837415276</v>
+        <v>106.8534043853844</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.3424726082825</v>
+        <v>146.201541919522</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.00241908219098</v>
+        <v>132.2482719539153</v>
       </c>
       <c r="AD4" t="n">
-        <v>79183.5837415276</v>
+        <v>106853.4043853843</v>
       </c>
       <c r="AE4" t="n">
-        <v>108342.4726082825</v>
+        <v>146201.541919522</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.912672910379287e-06</v>
+        <v>9.165477350548318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.683641975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>98002.41908219099</v>
+        <v>132248.2719539153</v>
       </c>
     </row>
     <row r="5">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.75215373024339</v>
+        <v>95.34093558376725</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.0156827997235</v>
+        <v>130.4496742108792</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.99313342378099</v>
+        <v>117.9997403914952</v>
       </c>
       <c r="AD5" t="n">
-        <v>76752.15373024339</v>
+        <v>95340.93558376725</v>
       </c>
       <c r="AE5" t="n">
-        <v>105015.6827997236</v>
+        <v>130449.6742108792</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.012300876575592e-06</v>
+        <v>9.35135129011474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.59104938271605</v>
       </c>
       <c r="AH5" t="n">
-        <v>94993.13342378099</v>
+        <v>117999.7403914952</v>
       </c>
     </row>
     <row r="6">
@@ -17359,28 +17359,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.99262502853061</v>
+        <v>95.58140688205447</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.3447062388849</v>
+        <v>130.7786976500406</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.29075532769622</v>
+        <v>118.2973622954104</v>
       </c>
       <c r="AD6" t="n">
-        <v>76992.62502853062</v>
+        <v>95581.40688205446</v>
       </c>
       <c r="AE6" t="n">
-        <v>105344.7062388849</v>
+        <v>130778.6976500406</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.009258345871393e-06</v>
+        <v>9.345674900343547e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.594907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>95290.75532769621</v>
+        <v>118297.3622954104</v>
       </c>
     </row>
   </sheetData>
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.37630928830619</v>
+        <v>109.3100440898424</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.0250976064643</v>
+        <v>149.5628247424546</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.0928777647628</v>
+        <v>135.2887586618183</v>
       </c>
       <c r="AD2" t="n">
-        <v>91376.30928830619</v>
+        <v>109310.0440898424</v>
       </c>
       <c r="AE2" t="n">
-        <v>125025.0976064643</v>
+        <v>149562.8247424545</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.539539258029863e-06</v>
+        <v>8.729702335684665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.243055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>113092.8777647628</v>
+        <v>135288.7586618183</v>
       </c>
     </row>
     <row r="3">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.11956405987124</v>
+        <v>100.9346911447773</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4136574710628</v>
+        <v>138.103297348528</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.73488033701217</v>
+        <v>124.9229124788168</v>
       </c>
       <c r="AD3" t="n">
-        <v>74119.56405987123</v>
+        <v>100934.6911447773</v>
       </c>
       <c r="AE3" t="n">
-        <v>101413.6574710628</v>
+        <v>138103.297348528</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.059100168501096e-06</v>
+        <v>9.728837233713855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.706790123456789</v>
       </c>
       <c r="AH3" t="n">
-        <v>91734.88033701218</v>
+        <v>124922.9124788168</v>
       </c>
     </row>
     <row r="4">
@@ -32209,28 +32209,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.42974390616588</v>
+        <v>90.44873005372266</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.10157098716056</v>
+        <v>123.7559427758</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.64345614209907</v>
+        <v>111.9448492898668</v>
       </c>
       <c r="AD4" t="n">
-        <v>72429.74390616588</v>
+        <v>90448.73005372265</v>
       </c>
       <c r="AE4" t="n">
-        <v>99101.57098716055</v>
+        <v>123755.9427758</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.156483125707843e-06</v>
+        <v>9.916108271733818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>89643.45614209906</v>
+        <v>111944.8492898668</v>
       </c>
     </row>
   </sheetData>
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.37316657461393</v>
+        <v>88.49402597034988</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.70996233414422</v>
+        <v>121.0814304134728</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.43448522719068</v>
+        <v>109.5255886336975</v>
       </c>
       <c r="AD2" t="n">
-        <v>63373.16657461393</v>
+        <v>88494.02597034987</v>
       </c>
       <c r="AE2" t="n">
-        <v>86709.96233414422</v>
+        <v>121081.4304134728</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.335239189667564e-06</v>
+        <v>1.100446073191622e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78434.48522719067</v>
+        <v>109525.5886336975</v>
       </c>
     </row>
     <row r="3">
@@ -32612,28 +32612,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.6046378104819</v>
+        <v>88.72549720621784</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.02667149084883</v>
+        <v>121.3981395701774</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.7209681064836</v>
+        <v>109.8120715129904</v>
       </c>
       <c r="AD3" t="n">
-        <v>63604.6378104819</v>
+        <v>88725.49720621784</v>
       </c>
       <c r="AE3" t="n">
-        <v>87026.67149084882</v>
+        <v>121398.1395701774</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.343585022436819e-06</v>
+        <v>1.10216748409223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.783950617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>78720.96810648359</v>
+        <v>109812.0715129904</v>
       </c>
     </row>
   </sheetData>
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.2338078572005</v>
+        <v>192.7893708833779</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.6612561086196</v>
+        <v>263.7829225092883</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.6514800870938</v>
+        <v>238.6078506067358</v>
       </c>
       <c r="AD2" t="n">
-        <v>153233.8078572005</v>
+        <v>192789.3708833779</v>
       </c>
       <c r="AE2" t="n">
-        <v>209661.2561086196</v>
+        <v>263782.9225092883</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.164718849544299e-06</v>
+        <v>5.560286177529917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.751543209876544</v>
       </c>
       <c r="AH2" t="n">
-        <v>189651.4800870938</v>
+        <v>238607.8506067358</v>
       </c>
     </row>
     <row r="3">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.5215108375515</v>
+        <v>146.0815965475211</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.4298716941244</v>
+        <v>199.8752850614273</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.2141085009113</v>
+        <v>180.7994683819459</v>
       </c>
       <c r="AD3" t="n">
-        <v>116521.5108375515</v>
+        <v>146081.5965475211</v>
       </c>
       <c r="AE3" t="n">
-        <v>159429.8716941244</v>
+        <v>199875.2850614273</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.955067665362021e-06</v>
+        <v>6.94889786941882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>144214.1085009113</v>
+        <v>180799.4683819459</v>
       </c>
     </row>
     <row r="4">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.1776072359665</v>
+        <v>129.9981486848921</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.7498629131658</v>
+        <v>177.8692021441473</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.3625075755358</v>
+        <v>160.8936151325528</v>
       </c>
       <c r="AD4" t="n">
-        <v>110177.6072359665</v>
+        <v>129998.1486848921</v>
       </c>
       <c r="AE4" t="n">
-        <v>150749.8629131658</v>
+        <v>177869.2021441473</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.214473574001942e-06</v>
+        <v>7.404663817913055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>136362.5075755358</v>
+        <v>160893.6151325527</v>
       </c>
     </row>
     <row r="5">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.48487528083098</v>
+        <v>126.1302123368211</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.0148629714587</v>
+        <v>172.5769209914108</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.4155497335217</v>
+        <v>156.1064218652685</v>
       </c>
       <c r="AD5" t="n">
-        <v>96484.87528083098</v>
+        <v>126130.2123368211</v>
       </c>
       <c r="AE5" t="n">
-        <v>132014.8629714587</v>
+        <v>172576.9209914109</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.371789990943511e-06</v>
+        <v>7.681062556696659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.888117283950617</v>
       </c>
       <c r="AH5" t="n">
-        <v>119415.5497335217</v>
+        <v>156106.4218652685</v>
       </c>
     </row>
     <row r="6">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.41167338086798</v>
+        <v>124.0570104368581</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.1782166687181</v>
+        <v>169.7402746886702</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.8496289726557</v>
+        <v>153.5405011044025</v>
       </c>
       <c r="AD6" t="n">
-        <v>94411.67338086799</v>
+        <v>124057.0104368581</v>
       </c>
       <c r="AE6" t="n">
-        <v>129178.2166687181</v>
+        <v>169740.2746886702</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.448564833859363e-06</v>
+        <v>7.815952927103026e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>116849.6289726557</v>
+        <v>153540.5011044025</v>
       </c>
     </row>
     <row r="7">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.67281157550714</v>
+        <v>122.3181486314973</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.7990292334559</v>
+        <v>167.361087253408</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.6975078470035</v>
+        <v>151.3883799787504</v>
       </c>
       <c r="AD7" t="n">
-        <v>92672.81157550713</v>
+        <v>122318.1486314973</v>
       </c>
       <c r="AE7" t="n">
-        <v>126799.0292334559</v>
+        <v>167361.087253408</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.510549717858524e-06</v>
+        <v>7.924857923123748e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH7" t="n">
-        <v>114697.5078470036</v>
+        <v>151388.3799787503</v>
       </c>
     </row>
     <row r="8">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.01570498437225</v>
+        <v>120.6610420403624</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.531702889083</v>
+        <v>165.0937609090352</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.6465719467245</v>
+        <v>149.3374440784712</v>
       </c>
       <c r="AD8" t="n">
-        <v>91015.70498437225</v>
+        <v>120661.0420403624</v>
       </c>
       <c r="AE8" t="n">
-        <v>124531.7028890831</v>
+        <v>165093.7609090352</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.554199484249354e-06</v>
+        <v>8.001548840786243e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.691358024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>112646.5719467245</v>
+        <v>149337.4440784712</v>
       </c>
     </row>
     <row r="9">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>89.07795694808223</v>
+        <v>118.7232940040724</v>
       </c>
       <c r="AB9" t="n">
-        <v>121.8803905384224</v>
+        <v>162.4424485583745</v>
       </c>
       <c r="AC9" t="n">
-        <v>110.2482971256698</v>
+        <v>146.9391692574166</v>
       </c>
       <c r="AD9" t="n">
-        <v>89077.95694808222</v>
+        <v>118723.2940040724</v>
       </c>
       <c r="AE9" t="n">
-        <v>121880.3905384224</v>
+        <v>162442.4485583745</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.60311159557309e-06</v>
+        <v>8.087485490908047e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.641203703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>110248.2971256697</v>
+        <v>146939.1692574166</v>
       </c>
     </row>
     <row r="10">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.70665290067883</v>
+        <v>118.351989956669</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.3723559599868</v>
+        <v>161.934413979939</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.7887486543689</v>
+        <v>146.4796207861157</v>
       </c>
       <c r="AD10" t="n">
-        <v>88706.65290067883</v>
+        <v>118351.989956669</v>
       </c>
       <c r="AE10" t="n">
-        <v>121372.3559599868</v>
+        <v>161934.413979939</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.596962960967274e-06</v>
+        <v>8.07668258245559e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.64891975308642</v>
       </c>
       <c r="AH10" t="n">
-        <v>109788.7486543689</v>
+        <v>146479.6207861157</v>
       </c>
     </row>
     <row r="11">
@@ -33863,28 +33863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.78422876391936</v>
+        <v>118.4295658199095</v>
       </c>
       <c r="AB11" t="n">
-        <v>121.478498678478</v>
+        <v>162.0405566984302</v>
       </c>
       <c r="AC11" t="n">
-        <v>109.8847612607796</v>
+        <v>146.5756333925264</v>
       </c>
       <c r="AD11" t="n">
-        <v>88784.22876391935</v>
+        <v>118429.5658199095</v>
       </c>
       <c r="AE11" t="n">
-        <v>121478.498678478</v>
+        <v>162040.5566984302</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.596741388549047e-06</v>
+        <v>8.076293288457302e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.64891975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>109884.7612607796</v>
+        <v>146575.6333925264</v>
       </c>
     </row>
   </sheetData>
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.8656733359081</v>
+        <v>237.8973004255698</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.3602993586095</v>
+        <v>325.5015817302869</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.6529304374571</v>
+        <v>294.4361676143843</v>
       </c>
       <c r="AD2" t="n">
-        <v>196865.6733359081</v>
+        <v>237897.3004255698</v>
       </c>
       <c r="AE2" t="n">
-        <v>269360.2993586095</v>
+        <v>325501.5817302869</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.680190788426402e-06</v>
+        <v>4.582827561327228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.685185185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>243652.9304374571</v>
+        <v>294436.1676143843</v>
       </c>
     </row>
     <row r="3">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.3434532727476</v>
+        <v>164.1171735899939</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.4463954656714</v>
+        <v>224.5523572444295</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.0339675476033</v>
+        <v>203.1213954302986</v>
       </c>
       <c r="AD3" t="n">
-        <v>133343.4532727476</v>
+        <v>164117.1735899939</v>
       </c>
       <c r="AE3" t="n">
-        <v>182446.3954656714</v>
+        <v>224552.3572444295</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.542147747091028e-06</v>
+        <v>6.05667790209543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.814043209876544</v>
       </c>
       <c r="AH3" t="n">
-        <v>165033.9675476032</v>
+        <v>203121.3954302986</v>
       </c>
     </row>
     <row r="4">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.652363673874</v>
+        <v>154.2554917905281</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.1866191358003</v>
+        <v>211.0591691397116</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.0396856604379</v>
+        <v>190.9159782604822</v>
       </c>
       <c r="AD4" t="n">
-        <v>123652.363673874</v>
+        <v>154255.4917905281</v>
       </c>
       <c r="AE4" t="n">
-        <v>169186.6191358003</v>
+        <v>211059.1691397116</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.857935297714011e-06</v>
+        <v>6.596639421539613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.339506172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>153039.6856604379</v>
+        <v>190915.9782604822</v>
       </c>
     </row>
     <row r="5">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.08081178959</v>
+        <v>139.5967148429719</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.9316201650911</v>
+        <v>191.0023838204782</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.3816550125449</v>
+        <v>172.773384382235</v>
       </c>
       <c r="AD5" t="n">
-        <v>119080.81178959</v>
+        <v>139596.7148429719</v>
       </c>
       <c r="AE5" t="n">
-        <v>162931.6201650911</v>
+        <v>191002.3838204782</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.023942613879913e-06</v>
+        <v>6.880493431930317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.119598765432098</v>
       </c>
       <c r="AH5" t="n">
-        <v>147381.6550125449</v>
+        <v>172773.384382235</v>
       </c>
     </row>
     <row r="6">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.9220173120522</v>
+        <v>136.6103967747268</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.9271770358918</v>
+        <v>186.9163716924523</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.0955306661961</v>
+        <v>169.0773355169527</v>
       </c>
       <c r="AD6" t="n">
-        <v>105922.0173120522</v>
+        <v>136610.3967747268</v>
       </c>
       <c r="AE6" t="n">
-        <v>144927.1770358919</v>
+        <v>186916.3716924523</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127924045356175e-06</v>
+        <v>7.058290091814912e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>131095.530666196</v>
+        <v>169077.3355169527</v>
       </c>
     </row>
     <row r="7">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>103.905668732785</v>
+        <v>134.5940481954596</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.1683199547187</v>
+        <v>184.1575146112792</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.599975032769</v>
+        <v>166.5817798835256</v>
       </c>
       <c r="AD7" t="n">
-        <v>103905.668732785</v>
+        <v>134594.0481954596</v>
       </c>
       <c r="AE7" t="n">
-        <v>142168.3199547187</v>
+        <v>184157.5146112792</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.192778993633208e-06</v>
+        <v>7.169184825777842e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.911265432098766</v>
       </c>
       <c r="AH7" t="n">
-        <v>128599.975032769</v>
+        <v>166581.7798835256</v>
       </c>
     </row>
     <row r="8">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>102.2534480747249</v>
+        <v>132.9418275373995</v>
       </c>
       <c r="AB8" t="n">
-        <v>139.9076787595309</v>
+        <v>181.8968734160915</v>
       </c>
       <c r="AC8" t="n">
-        <v>126.5550862604193</v>
+        <v>164.5368911111759</v>
       </c>
       <c r="AD8" t="n">
-        <v>102253.4480747249</v>
+        <v>132941.8275373995</v>
       </c>
       <c r="AE8" t="n">
-        <v>139907.6787595309</v>
+        <v>181896.8734160915</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.252776493109245e-06</v>
+        <v>7.271773863616797e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.841820987654321</v>
       </c>
       <c r="AH8" t="n">
-        <v>126555.0862604193</v>
+        <v>164536.8911111759</v>
       </c>
     </row>
     <row r="9">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>101.0419963114321</v>
+        <v>131.7303757741068</v>
       </c>
       <c r="AB9" t="n">
-        <v>138.2501170115148</v>
+        <v>180.2393116680753</v>
       </c>
       <c r="AC9" t="n">
-        <v>125.0557198792308</v>
+        <v>163.0375247299874</v>
       </c>
       <c r="AD9" t="n">
-        <v>101041.9963114321</v>
+        <v>131730.3757741068</v>
       </c>
       <c r="AE9" t="n">
-        <v>138250.1170115148</v>
+        <v>180239.3116680753</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.275622516041401e-06</v>
+        <v>7.310838016815261e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>125055.7198792308</v>
+        <v>163037.5247299874</v>
       </c>
     </row>
     <row r="10">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>99.65136393374434</v>
+        <v>130.339743396419</v>
       </c>
       <c r="AB10" t="n">
-        <v>136.3473924419927</v>
+        <v>178.3365870985533</v>
       </c>
       <c r="AC10" t="n">
-        <v>123.3345886721326</v>
+        <v>161.3163935228892</v>
       </c>
       <c r="AD10" t="n">
-        <v>99651.36393374433</v>
+        <v>130339.743396419</v>
       </c>
       <c r="AE10" t="n">
-        <v>136347.3924419927</v>
+        <v>178336.5870985533</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.321688211813482e-06</v>
+        <v>7.389605222914032e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.764660493827161</v>
       </c>
       <c r="AH10" t="n">
-        <v>123334.5886721326</v>
+        <v>161316.3935228892</v>
       </c>
     </row>
     <row r="11">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.63092088596986</v>
+        <v>129.3193003486445</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.9511772452584</v>
+        <v>176.9403719018189</v>
       </c>
       <c r="AC11" t="n">
-        <v>122.0716262941738</v>
+        <v>160.0534311449304</v>
       </c>
       <c r="AD11" t="n">
-        <v>98630.92088596986</v>
+        <v>129319.3003486445</v>
       </c>
       <c r="AE11" t="n">
-        <v>134951.1772452584</v>
+        <v>176940.3719018189</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.345388291677682e-06</v>
+        <v>7.43012971828814e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH11" t="n">
-        <v>122071.6262941738</v>
+        <v>160053.4311449304</v>
       </c>
     </row>
     <row r="12">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>97.31899805552644</v>
+        <v>128.0073775182011</v>
       </c>
       <c r="AB12" t="n">
-        <v>133.1561465506961</v>
+        <v>175.1453412072566</v>
       </c>
       <c r="AC12" t="n">
-        <v>120.4479108097586</v>
+        <v>158.4297156605152</v>
       </c>
       <c r="AD12" t="n">
-        <v>97318.99805552643</v>
+        <v>128007.3775182011</v>
       </c>
       <c r="AE12" t="n">
-        <v>133156.1465506961</v>
+        <v>175145.3412072567</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.368554585959354e-06</v>
+        <v>7.469741499802469e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.714506172839506</v>
       </c>
       <c r="AH12" t="n">
-        <v>120447.9108097586</v>
+        <v>158429.7156605152</v>
       </c>
     </row>
     <row r="13">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>96.06870994591019</v>
+        <v>126.7570894085848</v>
       </c>
       <c r="AB13" t="n">
-        <v>131.4454472003016</v>
+        <v>173.434641856862</v>
       </c>
       <c r="AC13" t="n">
-        <v>118.9004782043836</v>
+        <v>156.8822830551401</v>
       </c>
       <c r="AD13" t="n">
-        <v>96068.70994591019</v>
+        <v>126757.0894085848</v>
       </c>
       <c r="AE13" t="n">
-        <v>131445.4472003016</v>
+        <v>173434.6418568621</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.385795860274978e-06</v>
+        <v>7.499222157473273e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH13" t="n">
-        <v>118900.4782043836</v>
+        <v>156882.2830551401</v>
       </c>
     </row>
     <row r="14">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>96.19008091533622</v>
+        <v>126.8784603780109</v>
       </c>
       <c r="AB14" t="n">
-        <v>131.6115123151795</v>
+        <v>173.60070697174</v>
       </c>
       <c r="AC14" t="n">
-        <v>119.0506942977714</v>
+        <v>157.032499148528</v>
       </c>
       <c r="AD14" t="n">
-        <v>96190.08091533622</v>
+        <v>126878.4603780109</v>
       </c>
       <c r="AE14" t="n">
-        <v>131611.5123151795</v>
+        <v>173600.7069717399</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.389692495027424e-06</v>
+        <v>7.505884968649644e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.691358024691358</v>
       </c>
       <c r="AH14" t="n">
-        <v>119050.6942977714</v>
+        <v>157032.499148528</v>
       </c>
     </row>
     <row r="15">
@@ -35538,28 +35538,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>96.25335436766828</v>
+        <v>126.9417338303429</v>
       </c>
       <c r="AB15" t="n">
-        <v>131.6980858440878</v>
+        <v>173.6872805006483</v>
       </c>
       <c r="AC15" t="n">
-        <v>119.1290053705875</v>
+        <v>157.1108102213441</v>
       </c>
       <c r="AD15" t="n">
-        <v>96253.35436766827</v>
+        <v>126941.7338303429</v>
       </c>
       <c r="AE15" t="n">
-        <v>131698.0858440878</v>
+        <v>173687.2805006483</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.387076945673043e-06</v>
+        <v>7.501412670736739e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH15" t="n">
-        <v>119129.0053705875</v>
+        <v>157110.8102213441</v>
       </c>
     </row>
   </sheetData>
@@ -35835,28 +35835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.25428176389032</v>
+        <v>83.53022820593566</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.02027535882735</v>
+        <v>114.2897433249026</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.23798942987089</v>
+        <v>103.3820906286656</v>
       </c>
       <c r="AD2" t="n">
-        <v>67254.28176389032</v>
+        <v>83530.22820593565</v>
       </c>
       <c r="AE2" t="n">
-        <v>92020.27535882735</v>
+        <v>114289.7433249026</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.288228087110603e-06</v>
+        <v>1.133510849809276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.003858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>83237.9894298709</v>
+        <v>103382.0906286656</v>
       </c>
     </row>
   </sheetData>
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.838603645153</v>
+        <v>137.9733355703908</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.286023244432</v>
+        <v>188.7812046812949</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.9429361137828</v>
+        <v>170.7641914626502</v>
       </c>
       <c r="AD2" t="n">
-        <v>109838.603645153</v>
+        <v>137973.3355703908</v>
       </c>
       <c r="AE2" t="n">
-        <v>150286.023244432</v>
+        <v>188781.2046812949</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.925444986083698e-06</v>
+        <v>7.232367557121579e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.779320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>135942.9361137828</v>
+        <v>170764.1914626502</v>
       </c>
     </row>
     <row r="3">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.88231116276059</v>
+        <v>114.9317022334268</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.8762111098912</v>
+        <v>157.2546254245565</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.5308323654043</v>
+        <v>142.2464646823329</v>
       </c>
       <c r="AD3" t="n">
-        <v>86882.31116276058</v>
+        <v>114931.7022334268</v>
       </c>
       <c r="AE3" t="n">
-        <v>118876.2111098912</v>
+        <v>157254.6254245565</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578402281104615e-06</v>
+        <v>8.435397321501634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>107530.8323654043</v>
+        <v>142246.4646823329</v>
       </c>
     </row>
     <row r="4">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.79834113261705</v>
+        <v>110.8477322032832</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.2883431426098</v>
+        <v>151.6667574572751</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.4762626742965</v>
+        <v>137.1918949912252</v>
       </c>
       <c r="AD4" t="n">
-        <v>82798.34113261706</v>
+        <v>110847.7322032832</v>
       </c>
       <c r="AE4" t="n">
-        <v>113288.3431426098</v>
+        <v>151666.7574572751</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.789979962276873e-06</v>
+        <v>8.825214924995269e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.733796296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>102476.2626742965</v>
+        <v>137191.8949912252</v>
       </c>
     </row>
     <row r="5">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.9124737715459</v>
+        <v>98.75430257627606</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.3397721037117</v>
+        <v>135.1199935171513</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.90453771349534</v>
+        <v>122.2243309780125</v>
       </c>
       <c r="AD5" t="n">
-        <v>79912.47377154591</v>
+        <v>98754.30257627607</v>
       </c>
       <c r="AE5" t="n">
-        <v>109339.7721037117</v>
+        <v>135119.9935171513</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.911024265009209e-06</v>
+        <v>9.048230886538308e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>98904.53771349535</v>
+        <v>122224.3309780125</v>
       </c>
     </row>
     <row r="6">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.84119298771837</v>
+        <v>97.68302179244853</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.873998473707</v>
+        <v>133.6542198871466</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.5786554615116</v>
+        <v>120.8984487260287</v>
       </c>
       <c r="AD6" t="n">
-        <v>78841.19298771837</v>
+        <v>97683.02179244853</v>
       </c>
       <c r="AE6" t="n">
-        <v>107873.998473707</v>
+        <v>133654.2198871466</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.949295193167905e-06</v>
+        <v>9.118742489726518e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.583333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>97578.6554615116</v>
+        <v>120898.4487260287</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.0088101170617</v>
+        <v>168.0648514937478</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.1979866379622</v>
+        <v>229.9537443116005</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.0457577378395</v>
+        <v>208.0072816966748</v>
       </c>
       <c r="AD2" t="n">
-        <v>139008.8101170617</v>
+        <v>168064.8514937478</v>
       </c>
       <c r="AE2" t="n">
-        <v>190197.9866379622</v>
+        <v>229953.7443116005</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.44106300037876e-06</v>
+        <v>6.147207927315539e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.346450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>172045.7577378395</v>
+        <v>208007.2816966748</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.8624845576973</v>
+        <v>128.2901025480529</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.950454045641</v>
+        <v>175.5321780660477</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.7348317648407</v>
+        <v>158.7796333524323</v>
       </c>
       <c r="AD3" t="n">
-        <v>108862.4845576973</v>
+        <v>128290.1025480528</v>
       </c>
       <c r="AE3" t="n">
-        <v>148950.4540456409</v>
+        <v>175532.1780660477</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.169280589741105e-06</v>
+        <v>7.448115506643812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH3" t="n">
-        <v>134734.8317648407</v>
+        <v>158779.6333524323</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.27933098839375</v>
+        <v>122.3352828565288</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.6288958519149</v>
+        <v>167.3845310560049</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.4481731601223</v>
+        <v>151.409586337731</v>
       </c>
       <c r="AD4" t="n">
-        <v>93279.33098839375</v>
+        <v>122335.2828565289</v>
       </c>
       <c r="AE4" t="n">
-        <v>127628.8958519149</v>
+        <v>167384.5310560049</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.429754501310008e-06</v>
+        <v>7.913433140723457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>115448.1731601223</v>
+        <v>151409.586337731</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.16992582527442</v>
+        <v>119.2258776934095</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.3744705304629</v>
+        <v>163.1301057345528</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.5997842202248</v>
+        <v>147.5611973978335</v>
       </c>
       <c r="AD5" t="n">
-        <v>90169.92582527442</v>
+        <v>119225.8776934095</v>
       </c>
       <c r="AE5" t="n">
-        <v>123374.4705304629</v>
+        <v>163130.1057345528</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.567915478741493e-06</v>
+        <v>8.16024764415423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.780092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>111599.7842202248</v>
+        <v>147561.1973978335</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.10092350546029</v>
+        <v>117.1568753735954</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.5435702785543</v>
+        <v>160.2992054826443</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.039061115164</v>
+        <v>145.0004742927727</v>
       </c>
       <c r="AD6" t="n">
-        <v>88100.92350546029</v>
+        <v>117156.8753735954</v>
       </c>
       <c r="AE6" t="n">
-        <v>120543.5702785543</v>
+        <v>160299.2054826443</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642005081141254e-06</v>
+        <v>8.292603311909609e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.702932098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>109039.061115164</v>
+        <v>145000.4742927727</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.94286257357889</v>
+        <v>114.998814441714</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.5908161046268</v>
+        <v>157.3464513087167</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.3681136553787</v>
+        <v>142.3295268329873</v>
       </c>
       <c r="AD7" t="n">
-        <v>85942.8625735789</v>
+        <v>114998.814441714</v>
       </c>
       <c r="AE7" t="n">
-        <v>117590.8161046268</v>
+        <v>157346.4513087167</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.714170278283877e-06</v>
+        <v>8.421521170112901e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.633487654320988</v>
       </c>
       <c r="AH7" t="n">
-        <v>106368.1136553787</v>
+        <v>142329.5268329874</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.10342248718648</v>
+        <v>114.1593743553216</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.4422571449423</v>
+        <v>156.1978923490322</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.3291715507935</v>
+        <v>141.2905847284022</v>
       </c>
       <c r="AD8" t="n">
-        <v>85103.42248718647</v>
+        <v>114159.3743553216</v>
       </c>
       <c r="AE8" t="n">
-        <v>116442.2571449423</v>
+        <v>156197.8923490322</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.724471506425019e-06</v>
+        <v>8.439923562421134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.621913580246914</v>
       </c>
       <c r="AH8" t="n">
-        <v>105329.1715507935</v>
+        <v>141290.5847284022</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.13842441724694</v>
+        <v>114.194376285382</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.4901483298272</v>
+        <v>156.2457835339171</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.3724920682087</v>
+        <v>141.3339052458174</v>
       </c>
       <c r="AD9" t="n">
-        <v>85138.42441724693</v>
+        <v>114194.376285382</v>
       </c>
       <c r="AE9" t="n">
-        <v>116490.1483298271</v>
+        <v>156245.7835339171</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.722886702095613e-06</v>
+        <v>8.437092425142945e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.621913580246914</v>
       </c>
       <c r="AH9" t="n">
-        <v>105372.4920682087</v>
+        <v>141333.9052458174</v>
       </c>
     </row>
   </sheetData>
